--- a/Estadísticas algoritmos de ordenación/Tarea.xlsx
+++ b/Estadísticas algoritmos de ordenación/Tarea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\audri\Desktop\Tarea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\audri\Desktop\Universidad\3. Ciclo\Fundamentos de la Programación\Archivos\Clase\Estadísticas algoritmos de ordenación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -132,12 +132,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3949,7 +3949,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tiempo</a:t>
+              <a:t>Tiempo (seg)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9838,7 +9838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
@@ -9853,32 +9853,32 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10078,44 +10078,44 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>3</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>3</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>4</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>1</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>2</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="6">
         <v>3</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <v>4</v>
       </c>
     </row>
@@ -10135,9 +10135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView topLeftCell="I1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10150,32 +10148,32 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10326,49 +10324,49 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>3</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>4</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>1</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>2</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>3</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="6"/>
+      <c r="G18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10385,8 +10383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10400,32 +10398,32 @@
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="1"/>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -10722,40 +10720,40 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>1</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>2</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="6">
         <v>3</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>4</v>
       </c>
     </row>
